--- a/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.049228191667111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06355678148476958</v>
+        <v>0.06355678148476959</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05588207769937337</v>
@@ -697,7 +697,7 @@
         <v>0.07761487953538192</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06755622756341519</v>
+        <v>0.06755622756341517</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02926436884749316</v>
+        <v>0.02969163238382288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04335480898070271</v>
+        <v>0.04342515961760735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03210968032647799</v>
+        <v>0.03170862311396406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03248739892055338</v>
+        <v>0.03207944192613345</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03953454870941839</v>
+        <v>0.03818578764814243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05560359783131639</v>
+        <v>0.05668033146776451</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07908842413660269</v>
+        <v>0.08044074221004355</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04212002959022315</v>
+        <v>0.04454343046071176</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03762246591781431</v>
+        <v>0.03852838089653045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05629792141441079</v>
+        <v>0.05541132908337847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0603676640276019</v>
+        <v>0.06101818990091908</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04545680118048644</v>
+        <v>0.04484174553603033</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07013382569796284</v>
+        <v>0.0702424122980686</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09157597499814948</v>
+        <v>0.09090109258437709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07531792724704803</v>
+        <v>0.07411327976273842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1154608021549627</v>
+        <v>0.1143322902333729</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07944985747843802</v>
+        <v>0.07952408320530699</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1076297275377599</v>
+        <v>0.108585667326604</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1418154008535651</v>
+        <v>0.1391301490219181</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1124766939052478</v>
+        <v>0.1121282566619836</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06749198499326961</v>
+        <v>0.06835264087180627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08961741168305402</v>
+        <v>0.08920327322465686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09629687489164133</v>
+        <v>0.09941734671570182</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1000290863301783</v>
+        <v>0.0983571371320717</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3723930602393263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2717493266378484</v>
+        <v>0.2717493266378483</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2398136950466108</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2452090026495567</v>
+        <v>0.2477963828538738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2506603486807051</v>
+        <v>0.2503968678602871</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3280393545191513</v>
+        <v>0.3342825283422386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2160487199130321</v>
+        <v>0.2222197003478447</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2051840711527533</v>
+        <v>0.2080413083793834</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2311918308889535</v>
+        <v>0.2315052275111818</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2272883346863128</v>
+        <v>0.2291119923597382</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2073823313167195</v>
+        <v>0.2060120451617946</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2393501286838021</v>
+        <v>0.2400609749873379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2518571058311709</v>
+        <v>0.249537015239774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2910673324414806</v>
+        <v>0.2908262882841635</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2264593254013926</v>
+        <v>0.2305260323888027</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3155457345161451</v>
+        <v>0.3193639498912882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3181783742712768</v>
+        <v>0.3223185825158455</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4132552565530336</v>
+        <v>0.4115900142518692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3313666519706239</v>
+        <v>0.3224014611555258</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2758657800627657</v>
+        <v>0.2769429720759111</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3042643475625367</v>
+        <v>0.3033230949716074</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2960882116120774</v>
+        <v>0.3002947006722817</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2869180781344803</v>
+        <v>0.2844760154903686</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2891908443740662</v>
+        <v>0.289255805229973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2997903358108087</v>
+        <v>0.3016787309110707</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.344846220471923</v>
+        <v>0.3465421239557707</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.29226000343389</v>
+        <v>0.2914720997359029</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3323892920471025</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3596724214807436</v>
+        <v>0.3596724214807437</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2215245237088251</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2610725799530269</v>
+        <v>0.260707292648759</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3978468140093437</v>
+        <v>0.3979026972239103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4276727037069842</v>
+        <v>0.4282956791663328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.391641857923747</v>
+        <v>0.390899408497158</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1252088850442882</v>
+        <v>0.1244489312583005</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1859108171467463</v>
+        <v>0.1834027007535581</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2950587090941784</v>
+        <v>0.294283622964583</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3318505672918205</v>
+        <v>0.3287801998291057</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1989009342064609</v>
+        <v>0.1988628543778534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2964746751997497</v>
+        <v>0.2973672240242184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3736672507553122</v>
+        <v>0.3731204404661786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3734735184484795</v>
+        <v>0.3674940744828064</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.337648856860894</v>
+        <v>0.3359163058090316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4754022405579693</v>
+        <v>0.4781393150246611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5040873210819387</v>
+        <v>0.5073968075378871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4730148959233883</v>
+        <v>0.4764563289324489</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1837407087564338</v>
+        <v>0.1806080173101642</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.247157096360849</v>
+        <v>0.2456190013239725</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3680449591805132</v>
+        <v>0.3689440636293931</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3957752093932849</v>
+        <v>0.3965094551667913</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2475001619355062</v>
+        <v>0.2457838263665451</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3491463430420189</v>
+        <v>0.3490810145538558</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4250518999782392</v>
+        <v>0.4294327946260302</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4273563357562195</v>
+        <v>0.4224005125209739</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3811292852675141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3407447615718546</v>
+        <v>0.3407447615718545</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07312839882794295</v>
@@ -1105,7 +1105,7 @@
         <v>0.2877838668594484</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.315227279487828</v>
+        <v>0.3152272794878281</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1766141256029682</v>
+        <v>0.1714139980732957</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2947543863469854</v>
+        <v>0.2941893763262642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.344079189736405</v>
+        <v>0.3390697786776721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.306148319505073</v>
+        <v>0.3032751898061309</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05308237193140702</v>
+        <v>0.05138231111823714</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09766774858005133</v>
+        <v>0.1013197047475998</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1640736661982536</v>
+        <v>0.1638040126610606</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.265895163397442</v>
+        <v>0.2667481506132667</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1193053912009718</v>
+        <v>0.1203036763005952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2048153136254999</v>
+        <v>0.2069073441665357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.261827943236581</v>
+        <v>0.2626805296713405</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2950008350167625</v>
+        <v>0.2913027569394865</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2471567849652235</v>
+        <v>0.2454139292439963</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.373296876346183</v>
+        <v>0.3742028522863088</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.42180031186025</v>
+        <v>0.4172595123736759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3782454097899449</v>
+        <v>0.378276700336559</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09966056148449375</v>
+        <v>0.09594701870391302</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1578407394373991</v>
+        <v>0.1602653064323814</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2289296446651335</v>
+        <v>0.2274774327094286</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3185158127513225</v>
+        <v>0.3193870457921496</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1647958633522544</v>
+        <v>0.1665877512075244</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2558966732172491</v>
+        <v>0.256203654607617</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3149836950599652</v>
+        <v>0.3149929314224554</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3406470237522732</v>
+        <v>0.3382838958565179</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09838768325110929</v>
+        <v>0.1051561858523598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.216473987011627</v>
+        <v>0.2206630409772472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2906672617331523</v>
+        <v>0.2937553166350994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2834609904850686</v>
+        <v>0.2806909563250173</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05747996720408138</v>
+        <v>0.05593555777757481</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08027989726863614</v>
+        <v>0.08121789676871602</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1030162268926094</v>
+        <v>0.1031031164150212</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1854645802308822</v>
+        <v>0.1849717815995528</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08696080167360599</v>
+        <v>0.08603591876797881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1603135864931838</v>
+        <v>0.1624493468789183</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2069083641603661</v>
+        <v>0.2058809449370607</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2409703976228245</v>
+        <v>0.2420047696129142</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1702033957942682</v>
+        <v>0.1718065132264714</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3112130485006308</v>
+        <v>0.3096467314819425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3811482984256183</v>
+        <v>0.3820138287782258</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3528896624347062</v>
+        <v>0.3526424247743682</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1111633251807143</v>
+        <v>0.1095882162091178</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1490069935525943</v>
+        <v>0.1501468822947574</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1682839031601074</v>
+        <v>0.1656577777693662</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2360840346791375</v>
+        <v>0.2348048048789212</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1291964531710241</v>
+        <v>0.128562350264138</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2150421602621369</v>
+        <v>0.2171054484801355</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.261228393822752</v>
+        <v>0.2620099354909743</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2849796073464237</v>
+        <v>0.2838928835297668</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.1850846294188421</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1979947704305068</v>
+        <v>0.1979947704305069</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1924303615247604</v>
+        <v>0.1956503289948616</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1786150931400731</v>
+        <v>0.180894215302484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2300020209471769</v>
+        <v>0.2308562948867494</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2386258064753028</v>
+        <v>0.2361259538689104</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08638549622466148</v>
+        <v>0.08485519058321112</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05816679330546543</v>
+        <v>0.05801130971645229</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07561395719338172</v>
+        <v>0.07145381532572814</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1052659878306106</v>
+        <v>0.1061672023859819</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.145026244238196</v>
+        <v>0.1460735548914955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1213255300808501</v>
+        <v>0.1230387339200539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1565999497713139</v>
+        <v>0.1579469028087833</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1763941303976864</v>
+        <v>0.175694766729681</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.294127041392899</v>
+        <v>0.2974228900332888</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2759891226904119</v>
+        <v>0.2754859373873674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3299163566516961</v>
+        <v>0.3337223072265755</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3097275335707073</v>
+        <v>0.3115051106796538</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1539516597650826</v>
+        <v>0.1533303774665791</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1199436200846512</v>
+        <v>0.1213691116465629</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1359559755505912</v>
+        <v>0.1349406951650015</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1517557106545168</v>
+        <v>0.152026365011293</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2038245721554029</v>
+        <v>0.2048858512632948</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1814817336294778</v>
+        <v>0.1808160938600651</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2146719480736206</v>
+        <v>0.2148767215867902</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2196753169321871</v>
+        <v>0.220670742752463</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.04149164325075073</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.05495586179292939</v>
+        <v>0.05495586179292938</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.08901720233923732</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1116183025578734</v>
+        <v>0.116439956808939</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08992137443534032</v>
+        <v>0.09261636757761356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1403260579305296</v>
+        <v>0.1426160363697979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1556628314816354</v>
+        <v>0.1562243802662379</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02685418015949185</v>
+        <v>0.02427241440554999</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0310668665235715</v>
+        <v>0.03128290033031429</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02350850398956697</v>
+        <v>0.02141822186263202</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04005562667187446</v>
+        <v>0.04138986551028845</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0665559387992178</v>
+        <v>0.06507360304146462</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06427584560663201</v>
+        <v>0.06233766902363325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07662413872676714</v>
+        <v>0.07335286534062602</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09285234479137951</v>
+        <v>0.09399675842761467</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2105346013880476</v>
+        <v>0.2219051717517218</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.181955516533757</v>
+        <v>0.1841420082663223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2286488339342521</v>
+        <v>0.2274964605652621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2315874529465936</v>
+        <v>0.2326618203432927</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07093607515420434</v>
+        <v>0.07239107508128023</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07890169545973469</v>
+        <v>0.07989186841031504</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07490562038543817</v>
+        <v>0.07184779509967726</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07202809202908771</v>
+        <v>0.07136816261682684</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1171439449869113</v>
+        <v>0.114621427093831</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1083618363886904</v>
+        <v>0.1062115134377349</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1228492365343289</v>
+        <v>0.1222155696107422</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1285114298802124</v>
+        <v>0.1303727209200988</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1958365641918809</v>
+        <v>0.1952843169248216</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2595883940237142</v>
+        <v>0.2591049138428248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3074225567402411</v>
+        <v>0.3081243214715554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2737202525738075</v>
+        <v>0.2746993481724714</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.109053060470199</v>
+        <v>0.1090973331414669</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1357421046586758</v>
+        <v>0.1368470848236479</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1724319472236243</v>
+        <v>0.1725699404750387</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2007411011141239</v>
+        <v>0.2026867275632058</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1550996863601422</v>
+        <v>0.1544414848828004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2007458088019214</v>
+        <v>0.1999451014447602</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2430876936929685</v>
+        <v>0.2433969676215574</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2404124601191513</v>
+        <v>0.240843491319718</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2271186095767112</v>
+        <v>0.2244198229764744</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2903251036280314</v>
+        <v>0.2897626282607512</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3408594057548477</v>
+        <v>0.3396611554445645</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3085987346379955</v>
+        <v>0.3082730506620581</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1315106159007011</v>
+        <v>0.1315458765563316</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1606414500622224</v>
+        <v>0.1616268289407285</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1990574410066433</v>
+        <v>0.1981540322572919</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2241494887440406</v>
+        <v>0.2254917476467959</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1728372152099309</v>
+        <v>0.1732065753526561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2205233315218754</v>
+        <v>0.2200386313508385</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2644753057483317</v>
+        <v>0.2643077756885175</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2608009543547376</v>
+        <v>0.2606385048168437</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14458</v>
+        <v>14670</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19689</v>
+        <v>19721</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13410</v>
+        <v>13242</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13248</v>
+        <v>13082</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18448</v>
+        <v>17819</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23922</v>
+        <v>24386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31300</v>
+        <v>31835</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15269</v>
+        <v>16148</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36144</v>
+        <v>37014</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>49789</v>
+        <v>49004</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>49102</v>
+        <v>49631</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35016</v>
+        <v>34542</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34651</v>
+        <v>34704</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41589</v>
+        <v>41282</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31455</v>
+        <v>30952</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47084</v>
+        <v>46624</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37073</v>
+        <v>37108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>46306</v>
+        <v>46717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>56124</v>
+        <v>55061</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40774</v>
+        <v>40648</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>64839</v>
+        <v>65666</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79255</v>
+        <v>78889</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>78326</v>
+        <v>80864</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77053</v>
+        <v>75765</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>180349</v>
+        <v>182252</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>172225</v>
+        <v>172044</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>193706</v>
+        <v>197392</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>103031</v>
+        <v>105974</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>127793</v>
+        <v>129572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>141086</v>
+        <v>141277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>127874</v>
+        <v>128900</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>104051</v>
+        <v>103363</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>325111</v>
+        <v>326077</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>326745</v>
+        <v>323735</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>335631</v>
+        <v>335354</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>221618</v>
+        <v>225598</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>232080</v>
+        <v>234889</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>218616</v>
+        <v>221461</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>244026</v>
+        <v>243042</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>158025</v>
+        <v>153750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>171814</v>
+        <v>172485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>185679</v>
+        <v>185104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>166582</v>
+        <v>168949</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143956</v>
+        <v>142731</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>392810</v>
+        <v>392898</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>388931</v>
+        <v>391380</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>397644</v>
+        <v>399600</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>286012</v>
+        <v>285241</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>166508</v>
+        <v>166275</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>271277</v>
+        <v>271315</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>284999</v>
+        <v>285414</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>243146</v>
+        <v>242685</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>86362</v>
+        <v>85838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>131968</v>
+        <v>130188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>194874</v>
+        <v>194362</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>206807</v>
+        <v>204894</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>264047</v>
+        <v>263996</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>412607</v>
+        <v>413849</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>495801</v>
+        <v>495076</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>464612</v>
+        <v>457173</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>215348</v>
+        <v>214243</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>324159</v>
+        <v>326026</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>335921</v>
+        <v>338127</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>293665</v>
+        <v>295802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>126734</v>
+        <v>124573</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>175444</v>
+        <v>174352</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>243078</v>
+        <v>243672</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>246644</v>
+        <v>247102</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>328564</v>
+        <v>326285</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>485911</v>
+        <v>485820</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>563981</v>
+        <v>569794</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>531644</v>
+        <v>525478</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91689</v>
+        <v>88989</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>181161</v>
+        <v>180814</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>221357</v>
+        <v>218134</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>214493</v>
+        <v>212480</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27372</v>
+        <v>26495</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>60183</v>
+        <v>62433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>106326</v>
+        <v>106151</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>195755</v>
+        <v>196383</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>123456</v>
+        <v>124489</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>252090</v>
+        <v>254665</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>338116</v>
+        <v>339217</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>423865</v>
+        <v>418552</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>128311</v>
+        <v>127406</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>229435</v>
+        <v>229991</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>271357</v>
+        <v>268436</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>265005</v>
+        <v>265027</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51389</v>
+        <v>49474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97261</v>
+        <v>98755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>148355</v>
+        <v>147414</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>234495</v>
+        <v>235136</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>170529</v>
+        <v>172383</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>314962</v>
+        <v>315340</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>406760</v>
+        <v>406771</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>489451</v>
+        <v>486055</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38048</v>
+        <v>40665</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>92731</v>
+        <v>94525</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>138915</v>
+        <v>140391</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>172726</v>
+        <v>171038</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23163</v>
+        <v>22540</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35949</v>
+        <v>36369</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>51070</v>
+        <v>51113</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>112921</v>
+        <v>112621</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68671</v>
+        <v>67941</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>140462</v>
+        <v>142333</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>201459</v>
+        <v>200459</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>293551</v>
+        <v>294811</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>65819</v>
+        <v>66439</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>133314</v>
+        <v>132643</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>182158</v>
+        <v>182571</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>215032</v>
+        <v>214881</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44796</v>
+        <v>44161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>66725</v>
+        <v>67236</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>83426</v>
+        <v>82124</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143741</v>
+        <v>142962</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>102024</v>
+        <v>101523</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>188413</v>
+        <v>190221</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>254349</v>
+        <v>255110</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>347163</v>
+        <v>345839</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56302</v>
+        <v>57244</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>55332</v>
+        <v>56038</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>76655</v>
+        <v>76940</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>96879</v>
+        <v>95864</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29625</v>
+        <v>29100</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>20533</v>
+        <v>20478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>28492</v>
+        <v>26924</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>46169</v>
+        <v>46565</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>92167</v>
+        <v>92832</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>80412</v>
+        <v>81548</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>111200</v>
+        <v>112156</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>148980</v>
+        <v>148389</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86057</v>
+        <v>87021</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>85498</v>
+        <v>85342</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>109955</v>
+        <v>111223</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>125745</v>
+        <v>126467</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>52795</v>
+        <v>52582</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>42340</v>
+        <v>42843</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>51229</v>
+        <v>50847</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>66560</v>
+        <v>66678</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>129534</v>
+        <v>130208</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>120283</v>
+        <v>119842</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>152436</v>
+        <v>152581</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>185534</v>
+        <v>186375</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>23427</v>
+        <v>24439</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>22467</v>
+        <v>23140</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35960</v>
+        <v>36547</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>48286</v>
+        <v>48460</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8967</v>
+        <v>8105</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12084</v>
+        <v>12168</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9407</v>
+        <v>8571</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18610</v>
+        <v>19230</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>36193</v>
+        <v>35386</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>41061</v>
+        <v>39823</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>50298</v>
+        <v>48151</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>71943</v>
+        <v>72829</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44188</v>
+        <v>46574</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>45462</v>
+        <v>46008</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>58594</v>
+        <v>58299</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>71838</v>
+        <v>72171</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23686</v>
+        <v>24172</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>30691</v>
+        <v>31076</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>29975</v>
+        <v>28751</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>33465</v>
+        <v>33158</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>63702</v>
+        <v>62330</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>69225</v>
+        <v>67851</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>80642</v>
+        <v>80226</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>99572</v>
+        <v>101014</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>641494</v>
+        <v>639685</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>889277</v>
+        <v>887621</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1040720</v>
+        <v>1043096</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>966689</v>
+        <v>970147</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>368015</v>
+        <v>368165</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>482741</v>
+        <v>486670</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>610337</v>
+        <v>610825</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>749910</v>
+        <v>757179</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1031461</v>
+        <v>1027083</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1401613</v>
+        <v>1396022</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1683356</v>
+        <v>1685497</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1747168</v>
+        <v>1750301</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>743964</v>
+        <v>735123</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>994572</v>
+        <v>992645</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1153914</v>
+        <v>1149858</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1089869</v>
+        <v>1088718</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>443802</v>
+        <v>443921</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>571290</v>
+        <v>574795</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>704580</v>
+        <v>701382</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>837357</v>
+        <v>842372</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1149421</v>
+        <v>1151877</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1539700</v>
+        <v>1536316</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1831462</v>
+        <v>1830302</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1895339</v>
+        <v>1894159</v>
       </c>
     </row>
     <row r="36">
